--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H2">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I2">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J2">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>22.55793076541666</v>
+        <v>1.594238629709111</v>
       </c>
       <c r="R2">
-        <v>203.02137688875</v>
+        <v>14.348147667382</v>
       </c>
       <c r="S2">
-        <v>0.3078421494407462</v>
+        <v>0.01824814585909149</v>
       </c>
       <c r="T2">
-        <v>0.3078421494407462</v>
+        <v>0.01824814585909149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H3">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I3">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J3">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>24.16887529583333</v>
+        <v>1.612319520784444</v>
       </c>
       <c r="R3">
-        <v>217.5198776625001</v>
+        <v>14.51087568706</v>
       </c>
       <c r="S3">
-        <v>0.329826285841837</v>
+        <v>0.01845510530133335</v>
       </c>
       <c r="T3">
-        <v>0.329826285841837</v>
+        <v>0.01845510530133335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H4">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I4">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J4">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>10.97041747083333</v>
+        <v>1.327134943665111</v>
       </c>
       <c r="R4">
-        <v>98.7337572375</v>
+        <v>11.944214492986</v>
       </c>
       <c r="S4">
-        <v>0.149710402501152</v>
+        <v>0.0151907948881636</v>
       </c>
       <c r="T4">
-        <v>0.149710402501152</v>
+        <v>0.01519079488816361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H5">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I5">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J5">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>9.338462081666668</v>
+        <v>0.5537656646442222</v>
       </c>
       <c r="R5">
-        <v>84.04615873500001</v>
+        <v>4.983890981797999</v>
       </c>
       <c r="S5">
-        <v>0.127439536435605</v>
+        <v>0.006338572176003746</v>
       </c>
       <c r="T5">
-        <v>0.127439536435605</v>
+        <v>0.006338572176003747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H6">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N6">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q6">
-        <v>2.100440121226778</v>
+        <v>23.89784043208333</v>
       </c>
       <c r="R6">
-        <v>18.903961091041</v>
+        <v>215.08056388875</v>
       </c>
       <c r="S6">
-        <v>0.02866415401368883</v>
+        <v>0.2735420342947787</v>
       </c>
       <c r="T6">
-        <v>0.02866415401368883</v>
+        <v>0.2735420342947788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H7">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
         <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q7">
-        <v>2.250440250225556</v>
+        <v>24.16887529583333</v>
       </c>
       <c r="R7">
-        <v>20.25396225203</v>
+        <v>217.5198776625</v>
       </c>
       <c r="S7">
-        <v>0.03071116633088973</v>
+        <v>0.2766443827352449</v>
       </c>
       <c r="T7">
-        <v>0.03071116633088973</v>
+        <v>0.2766443827352449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H8">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N8">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q8">
-        <v>1.021490190832222</v>
+        <v>19.89392210458333</v>
       </c>
       <c r="R8">
-        <v>9.193411717490001</v>
+        <v>179.04529894125</v>
       </c>
       <c r="S8">
-        <v>0.01394000802859637</v>
+        <v>0.2277119532225109</v>
       </c>
       <c r="T8">
-        <v>0.01394000802859637</v>
+        <v>0.2277119532225109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H9">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N9">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q9">
-        <v>0.869533674469778</v>
+        <v>8.301017955416667</v>
       </c>
       <c r="R9">
-        <v>7.825803070228001</v>
+        <v>74.70916159875</v>
       </c>
       <c r="S9">
-        <v>0.01186629740748485</v>
+        <v>0.09501600551293872</v>
       </c>
       <c r="T9">
-        <v>0.01186629740748485</v>
+        <v>0.09501600551293873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.122161</v>
+      </c>
+      <c r="I10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>46.29121633333333</v>
+      </c>
+      <c r="N10">
+        <v>138.873649</v>
+      </c>
+      <c r="O10">
+        <v>0.3133663986859022</v>
+      </c>
+      <c r="P10">
+        <v>0.3133663986859022</v>
+      </c>
+      <c r="Q10">
+        <v>1.884993759498778</v>
+      </c>
+      <c r="R10">
+        <v>16.964943835489</v>
+      </c>
+      <c r="S10">
+        <v>0.02157621853203194</v>
+      </c>
+      <c r="T10">
+        <v>0.02157621853203194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.122161</v>
+      </c>
+      <c r="I11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.81622333333333</v>
+      </c>
+      <c r="N11">
+        <v>140.44867</v>
+      </c>
+      <c r="O11">
+        <v>0.3169204109998198</v>
+      </c>
+      <c r="P11">
+        <v>0.3169204109998198</v>
+      </c>
+      <c r="Q11">
+        <v>1.906372219541111</v>
+      </c>
+      <c r="R11">
+        <v>17.15734997587</v>
+      </c>
+      <c r="S11">
+        <v>0.02182092296324149</v>
+      </c>
+      <c r="T11">
+        <v>0.02182092296324149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.122161</v>
+      </c>
+      <c r="I12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>38.53544233333333</v>
+      </c>
+      <c r="N12">
+        <v>115.606327</v>
+      </c>
+      <c r="O12">
+        <v>0.2608640200510233</v>
+      </c>
+      <c r="P12">
+        <v>0.2608640200510233</v>
+      </c>
+      <c r="Q12">
+        <v>1.569176056960778</v>
+      </c>
+      <c r="R12">
+        <v>14.122584512647</v>
+      </c>
+      <c r="S12">
+        <v>0.01796127194034877</v>
+      </c>
+      <c r="T12">
+        <v>0.01796127194034877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.122161</v>
+      </c>
+      <c r="I13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.07945366666667</v>
+      </c>
+      <c r="N13">
+        <v>48.238361</v>
+      </c>
+      <c r="O13">
+        <v>0.1088491702632547</v>
+      </c>
+      <c r="P13">
+        <v>0.1088491702632547</v>
+      </c>
+      <c r="Q13">
+        <v>0.6547607131245556</v>
+      </c>
+      <c r="R13">
+        <v>5.892846418121</v>
+      </c>
+      <c r="S13">
+        <v>0.007494592574312256</v>
+      </c>
+      <c r="T13">
+        <v>0.007494592574312256</v>
       </c>
     </row>
   </sheetData>
